--- a/xlsx/美国国家安全局_intext.xlsx
+++ b/xlsx/美国国家安全局_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="912">
   <si>
     <t>美国国家安全局</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国国家安全局</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国国家安全局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬里蘭州</t>
+    <t>马里兰州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%BE%B7%E5%A0%A1</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>縮寫</t>
+    <t>缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國政府</t>
+    <t>美国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -101,9 +101,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
   </si>
   <si>
-    <t>马里兰州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E7%89%B9%E5%8C%BA</t>
   </si>
   <si>
@@ -197,37 +194,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>維基媒體基金會</t>
+    <t>维基媒体基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%B8%E6%B3%95%E9%83%A8</t>
   </si>
   <si>
-    <t>美國司法部</t>
+    <t>美国司法部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第一修正案</t>
+    <t>美国宪法第一修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第四修正案</t>
+    <t>美国宪法第四修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83%E6%8E%A7%E5%91%8A%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80%E6%A1%88</t>
   </si>
   <si>
-    <t>維基媒體基金會控告美國國家安全局案</t>
+    <t>维基媒体基金会控告美国国家安全局案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E5%AF%86%E7%A2%BC</t>
   </si>
   <si>
-    <t>數位密碼</t>
+    <t>数位密码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B8%83%E6%9C%97</t>
@@ -239,13 +236,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%AA%AA</t>
   </si>
   <si>
-    <t>小說</t>
+    <t>小说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%B0%91%E5%85%AC%E6%95%B5</t>
   </si>
   <si>
-    <t>全民公敵</t>
+    <t>全民公敌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E7%9B%91%E5%90%AC%E9%A1%B9%E7%9B%AE%E5%88%97%E8%A1%A8</t>
@@ -281,7 +278,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -305,7 +302,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -365,7 +362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
@@ -491,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -521,9 +518,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
   </si>
   <si>
-    <t>美国司法部</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
@@ -533,25 +527,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -587,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -599,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -641,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -653,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -689,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -701,13 +695,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -719,13 +713,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -737,13 +731,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -791,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -803,13 +797,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -821,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -833,7 +827,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -845,13 +839,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -869,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -941,15 +935,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -959,7 +950,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1013,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -1061,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -1097,19 +1088,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -1121,7 +1112,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -1187,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E5%AF%9F%E5%BB%B3</t>
   </si>
   <si>
-    <t>警察廳</t>
+    <t>警察厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E9%98%81%E6%83%85%E6%8A%A5%E8%B0%83%E6%9F%A5%E5%AE%A4</t>
@@ -1217,19 +1208,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E4%B8%89%E8%BB%8D%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>巴基斯坦三軍情報局</t>
+    <t>巴基斯坦三军情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E5%A4%96%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>對外情報局</t>
+    <t>对外情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E9%99%A2</t>
   </si>
   <si>
-    <t>大韓民國國家情報院</t>
+    <t>大韩民国国家情报院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SIS</t>
@@ -1241,13 +1232,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
   </si>
   <si>
-    <t>中華民國國家安全局</t>
+    <t>中华民国国家安全局</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E3%82%BF%E3%82%A4%E7%8E%8B%E5%9B%BD%E5%9B%BD%E5%AE%B6%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>ja-タイ王国国家情報局</t>
+    <t>ja-タイ王国国家情报局</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ministry_of_Security_(Tajikistan)</t>
@@ -1343,7 +1334,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%8B%99%E9%99%A2</t>
   </si>
   <si>
-    <t>美國國務院</t>
+    <t>美国国务院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bureau_of_Intelligence_and_Research</t>
@@ -1355,7 +1346,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>白俄羅斯國家安全委員會</t>
+    <t>白俄罗斯国家安全委员会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/SHISH</t>
@@ -1379,7 +1370,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%B5%AB%E6%83%85%E5%A0%B1%E5%AE%89%E5%85%A8%E5%B1%80</t>
   </si>
   <si>
-    <t>波赫情報安全局</t>
+    <t>波赫情报安全局</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Security_and_Intelligence_Agency</t>
@@ -1415,7 +1406,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>聯邦情報局</t>
+    <t>联邦情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E5%9B%BD%E5%AE%B6%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -1571,7 +1562,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E8%96%A9%E5%BE%B7</t>
   </si>
   <si>
-    <t>摩薩德</t>
+    <t>摩萨德</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/General_Intelligence_Directorate_(Jordan)</t>
@@ -1799,7 +1790,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%AE%89%E5%85%A8%E5%B1%80</t>
   </si>
   <si>
-    <t>聯邦安全局</t>
+    <t>联邦安全局</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Supreme_Prosecutors%27_Office_of_the_Republic_of_Korea</t>
@@ -1817,7 +1808,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%8B%99%E9%83%A8%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>法務部調查局</t>
+    <t>法务部调查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISD</t>
@@ -1847,7 +1838,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%B2%A1%E6%94%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國財政部</t>
+    <t>美国财政部</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Under_Secretary_of_the_Treasury_for_Terrorism_and_Financial_Intelligence</t>
@@ -1865,7 +1856,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%83%BD%E6%BA%90%E9%83%A8</t>
   </si>
   <si>
-    <t>美國能源部</t>
+    <t>美国能源部</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Office_of_Intelligence_and_Counterintelligence</t>
@@ -2027,7 +2018,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%AE%89%E5%85%A8%E5%B1%80</t>
   </si>
   <si>
-    <t>英國安全局</t>
+    <t>英国安全局</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/National_Domestic_Extremism_and_Disorder_Intelligence_Unit</t>
@@ -2105,13 +2096,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD%E5%AE%89%E5%85%A8%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>紐西蘭安全情報局</t>
+    <t>纽西兰安全情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%83%85%E5%A0%B1</t>
   </si>
   <si>
-    <t>軍事情報</t>
+    <t>军事情报</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Directorate_General_of_Forces_Intelligence</t>
@@ -2141,7 +2132,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E8%A1%9B%E7%9C%81%E6%83%85%E5%A0%B1%E6%9C%AC%E9%83%A8</t>
   </si>
   <si>
-    <t>防衛省情報本部</t>
+    <t>防卫省情报本部</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Military_Intelligence_(Pakistan)</t>
@@ -2177,7 +2168,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E9%83%A8%E8%BB%8D%E4%BA%8B%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防部軍事情報局</t>
+    <t>国防部军事情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E5%9B%BD%E9%98%B2%E9%83%A8%E5%9B%BD%E9%98%B2%E6%83%85%E6%8A%A5%E6%80%BB%E5%B1%80</t>
@@ -2225,7 +2216,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%98%B2%E6%8A%80%E8%A1%93%E8%B3%87%E8%A8%8A%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>美國國防技術資訊中心</t>
+    <t>美国国防技术资讯中心</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Air_Force_Intelligence,_Surveillance_and_Reconnaissance_Agency</t>
@@ -2249,7 +2240,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國海軍情報局</t>
+    <t>美国海军情报局</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/General_Directorate_of_Military_Counterintelligence</t>
@@ -2291,7 +2282,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E8%BB%8D%E4%BA%8B%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>德國軍事情報局</t>
+    <t>德国军事情报局</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Katonai_Nemzetbiztons%C3%A1gi_Szolg%C3%A1lat</t>
@@ -2483,7 +2474,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E9%83%A8%E9%9B%BB%E8%A8%8A%E7%99%BC%E5%B1%95%E5%AE%A4</t>
   </si>
   <si>
-    <t>國防部電訊發展室</t>
+    <t>国防部电讯发展室</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Subchefia_de_Intelig%C3%AAncia_do_Estado-Maior_de_Defesa</t>
@@ -2627,7 +2618,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8</t>
   </si>
   <si>
-    <t>國家安全</t>
+    <t>国家安全</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%B4%E8%B0%8D</t>
@@ -2645,7 +2636,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E7%88%BE%E8%A5%BF%C2%B7%E6%9B%BC%E5%AF%A7</t>
   </si>
   <si>
-    <t>切爾西·曼寧</t>
+    <t>切尔西·曼宁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E6%96%AF%E8%AF%BA%E7%99%BB</t>
@@ -2657,7 +2648,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A7%A3%E5%AF%86</t>
   </si>
   <si>
-    <t>維基解密</t>
+    <t>维基解密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%9B%91%E6%8E%A7</t>
@@ -2693,13 +2684,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%AF%E9%9A%8A%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>梯隊系統</t>
+    <t>梯队系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%9C%E9%8F%A1%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>稜鏡計畫</t>
+    <t>稜镜计画</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stone_Ghost</t>
@@ -2717,7 +2708,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2735,7 +2726,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2753,7 +2744,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3507,7 +3498,7 @@
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -3533,10 +3524,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -3562,10 +3553,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -3591,10 +3582,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -3620,10 +3611,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -3649,10 +3640,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -3678,10 +3669,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -3707,10 +3698,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -3736,10 +3727,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -3765,10 +3756,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -3794,10 +3785,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -3823,10 +3814,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -3852,10 +3843,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -3881,10 +3872,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -3910,10 +3901,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -3939,10 +3930,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -3968,10 +3959,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -3997,10 +3988,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -4026,10 +4017,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -4055,10 +4046,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -4084,10 +4075,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -4113,10 +4104,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -4142,10 +4133,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -4171,10 +4162,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -4200,10 +4191,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -4229,10 +4220,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -4258,10 +4249,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -4287,10 +4278,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>5</v>
@@ -4316,10 +4307,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>6</v>
@@ -4345,10 +4336,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -4374,10 +4365,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -4403,10 +4394,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -4432,10 +4423,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -4461,10 +4452,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -4490,10 +4481,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -4519,10 +4510,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -4548,10 +4539,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -4577,10 +4568,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4606,10 +4597,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4635,10 +4626,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4664,10 +4655,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4693,10 +4684,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4722,10 +4713,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4751,10 +4742,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4780,10 +4771,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4809,10 +4800,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -4838,10 +4829,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -4867,10 +4858,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4896,10 +4887,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>8</v>
@@ -4925,10 +4916,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4954,10 +4945,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4983,10 +4974,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -5012,10 +5003,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -5041,10 +5032,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>4</v>
@@ -5070,10 +5061,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -5099,10 +5090,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -5128,10 +5119,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -5157,10 +5148,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -5186,10 +5177,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5215,10 +5206,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5244,10 +5235,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -5273,10 +5264,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5331,10 +5322,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5360,10 +5351,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -5389,10 +5380,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5418,10 +5409,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5447,10 +5438,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -5476,10 +5467,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5505,10 +5496,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5534,10 +5525,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5563,10 +5554,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>61</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5592,10 +5583,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5621,10 +5612,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>85</v>
@@ -5650,10 +5641,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5708,10 +5699,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -5737,10 +5728,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5766,10 +5757,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5795,10 +5786,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -5824,10 +5815,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5853,10 +5844,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>3</v>
@@ -5882,10 +5873,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5911,10 +5902,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5940,10 +5931,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>5</v>
@@ -5969,10 +5960,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5998,10 +5989,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -6027,10 +6018,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -6056,10 +6047,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6085,10 +6076,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6114,10 +6105,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6143,10 +6134,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6172,10 +6163,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6201,10 +6192,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6230,10 +6221,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6259,10 +6250,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6288,10 +6279,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6317,10 +6308,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>7</v>
@@ -6346,10 +6337,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6375,10 +6366,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6404,10 +6395,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6433,10 +6424,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6462,10 +6453,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6491,10 +6482,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6520,10 +6511,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6549,10 +6540,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6578,10 +6569,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6607,10 +6598,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6636,10 +6627,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6665,10 +6656,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6694,10 +6685,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6723,10 +6714,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6752,10 +6743,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6781,10 +6772,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6810,10 +6801,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6839,10 +6830,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -6868,10 +6859,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6897,10 +6888,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6926,10 +6917,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6955,10 +6946,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6984,10 +6975,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7013,10 +7004,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7042,10 +7033,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7071,10 +7062,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7100,10 +7091,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7129,10 +7120,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7158,10 +7149,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7187,10 +7178,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7216,10 +7207,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7245,10 +7236,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7274,10 +7265,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -7303,10 +7294,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7332,10 +7323,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -7361,10 +7352,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7390,10 +7381,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7419,10 +7410,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7448,10 +7439,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7477,10 +7468,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7506,10 +7497,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>4</v>
@@ -7535,10 +7526,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>4</v>
@@ -7564,10 +7555,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7593,10 +7584,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7622,10 +7613,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7651,10 +7642,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7680,10 +7671,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7709,10 +7700,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7738,10 +7729,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7767,10 +7758,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7796,10 +7787,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -7825,10 +7816,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7854,10 +7845,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7883,10 +7874,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7912,10 +7903,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7941,10 +7932,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7970,10 +7961,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7999,10 +7990,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8028,10 +8019,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G170" t="n">
         <v>4</v>
@@ -8057,10 +8048,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8086,10 +8077,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8115,10 +8106,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8144,10 +8135,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -8173,10 +8164,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8202,10 +8193,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8231,10 +8222,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -8260,10 +8251,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8289,10 +8280,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8318,10 +8309,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8347,10 +8338,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8376,10 +8367,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8405,10 +8396,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8434,10 +8425,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8463,10 +8454,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -8492,10 +8483,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8521,10 +8512,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8550,10 +8541,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8579,10 +8570,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G189" t="n">
         <v>5</v>
@@ -8608,10 +8599,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8637,10 +8628,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -8666,10 +8657,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8695,10 +8686,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8724,10 +8715,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G194" t="n">
         <v>4</v>
@@ -8753,10 +8744,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F195" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8782,10 +8773,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8811,10 +8802,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F197" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -8840,10 +8831,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8869,10 +8860,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8898,10 +8889,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F200" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8927,10 +8918,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F201" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8956,10 +8947,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F202" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8985,10 +8976,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F203" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9014,10 +9005,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F204" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9043,10 +9034,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F205" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G205" t="n">
         <v>9</v>
@@ -9072,10 +9063,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F206" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9101,10 +9092,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F207" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9130,10 +9121,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F208" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9159,10 +9150,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F209" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9188,10 +9179,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F210" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -9217,10 +9208,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F211" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9246,10 +9237,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F212" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9275,10 +9266,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F213" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G213" t="n">
         <v>3</v>
@@ -9304,10 +9295,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F214" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9333,10 +9324,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F215" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9362,10 +9353,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F216" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -9391,10 +9382,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F217" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -9420,10 +9411,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F218" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -9449,10 +9440,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F219" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -9478,10 +9469,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F220" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9507,10 +9498,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F221" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9536,10 +9527,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F222" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9565,10 +9556,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F223" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9594,10 +9585,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F224" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9623,10 +9614,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F225" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G225" t="n">
         <v>6</v>
@@ -9652,10 +9643,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F226" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -9681,10 +9672,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F227" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9710,10 +9701,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F228" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -9739,10 +9730,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F229" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9768,10 +9759,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F230" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -9797,10 +9788,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F231" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9826,10 +9817,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F232" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -9855,10 +9846,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F233" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G233" t="n">
         <v>3</v>
@@ -9884,10 +9875,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F234" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9913,10 +9904,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F235" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -9942,10 +9933,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F236" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9971,10 +9962,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F237" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10000,10 +9991,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F238" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G238" t="n">
         <v>3</v>
@@ -10029,10 +10020,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F239" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10058,10 +10049,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F240" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10087,10 +10078,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F241" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10116,10 +10107,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F242" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10145,10 +10136,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F243" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10174,10 +10165,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F244" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10203,10 +10194,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F245" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10232,10 +10223,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F246" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -10261,10 +10252,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F247" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G247" t="n">
         <v>3</v>
@@ -10290,10 +10281,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F248" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10319,10 +10310,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F249" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -10348,10 +10339,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F250" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -10377,10 +10368,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F251" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10406,10 +10397,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F252" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10435,10 +10426,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F253" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G253" t="n">
         <v>3</v>
@@ -10464,10 +10455,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F254" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10493,10 +10484,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F255" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10522,10 +10513,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F256" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10551,10 +10542,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F257" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G257" t="n">
         <v>29</v>
@@ -10580,10 +10571,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F258" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10609,10 +10600,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F259" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10638,10 +10629,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F260" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10667,10 +10658,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F261" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10696,10 +10687,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F262" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10725,10 +10716,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F263" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10754,10 +10745,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F264" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10783,10 +10774,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F265" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -10812,10 +10803,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F266" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10841,10 +10832,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F267" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10870,10 +10861,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F268" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10899,10 +10890,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F269" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10928,10 +10919,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F270" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10957,10 +10948,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F271" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10986,10 +10977,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F272" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11015,10 +11006,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F273" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11044,10 +11035,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F274" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11073,10 +11064,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F275" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G275" t="n">
         <v>3</v>
@@ -11102,10 +11093,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F276" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11131,10 +11122,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F277" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11160,10 +11151,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F278" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G278" t="n">
         <v>4</v>
@@ -11189,10 +11180,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F279" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11218,10 +11209,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F280" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11247,10 +11238,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F281" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11276,10 +11267,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F282" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11305,10 +11296,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F283" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11334,10 +11325,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F284" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11363,10 +11354,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F285" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11392,10 +11383,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F286" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11421,10 +11412,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F287" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11450,10 +11441,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F288" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11479,10 +11470,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F289" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11508,10 +11499,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F290" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11537,10 +11528,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F291" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G291" t="n">
         <v>7</v>
@@ -11566,10 +11557,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F292" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11595,10 +11586,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F293" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G293" t="n">
         <v>5</v>
@@ -11624,10 +11615,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F294" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11653,10 +11644,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F295" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G295" t="n">
         <v>5</v>
@@ -11682,10 +11673,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F296" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11711,10 +11702,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F297" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11740,10 +11731,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F298" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11769,10 +11760,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F299" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11798,10 +11789,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F300" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11827,10 +11818,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F301" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11856,10 +11847,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F302" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11885,10 +11876,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F303" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11914,10 +11905,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F304" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11943,10 +11934,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F305" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11972,10 +11963,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F306" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12001,10 +11992,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F307" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12030,10 +12021,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F308" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12059,10 +12050,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F309" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12088,10 +12079,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F310" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12117,10 +12108,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F311" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12146,10 +12137,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F312" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12175,10 +12166,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F313" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12204,10 +12195,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F314" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12233,10 +12224,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F315" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12262,10 +12253,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F316" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12291,10 +12282,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F317" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G317" t="n">
         <v>3</v>
@@ -12320,10 +12311,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F318" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -12349,10 +12340,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F319" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12378,10 +12369,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F320" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12407,10 +12398,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F321" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12436,10 +12427,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F322" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12465,10 +12456,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F323" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12494,10 +12485,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F324" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -12523,10 +12514,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F325" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -12552,10 +12543,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F326" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -12581,10 +12572,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F327" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12610,10 +12601,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F328" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12639,10 +12630,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F329" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12668,10 +12659,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F330" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12697,10 +12688,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F331" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12726,10 +12717,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F332" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G332" t="n">
         <v>19</v>
@@ -12755,10 +12746,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F333" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G333" t="n">
         <v>2</v>
@@ -12784,10 +12775,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F334" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12813,10 +12804,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F335" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12842,10 +12833,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F336" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12871,10 +12862,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F337" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12900,10 +12891,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F338" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12929,10 +12920,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F339" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12958,10 +12949,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F340" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12987,10 +12978,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F341" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13016,10 +13007,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F342" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13045,10 +13036,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F343" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13074,10 +13065,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F344" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13103,10 +13094,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F345" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13132,10 +13123,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F346" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13161,10 +13152,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F347" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13190,10 +13181,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F348" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13219,10 +13210,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F349" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13248,10 +13239,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F350" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G350" t="n">
         <v>4</v>
@@ -13277,10 +13268,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F351" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13306,10 +13297,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F352" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13335,13 +13326,13 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F353" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H353" t="s">
         <v>4</v>
@@ -13364,10 +13355,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F354" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13393,10 +13384,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F355" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13422,10 +13413,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F356" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G356" t="n">
         <v>3</v>
@@ -13451,10 +13442,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F357" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13480,10 +13471,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F358" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G358" t="n">
         <v>2</v>
@@ -13509,10 +13500,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F359" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13538,10 +13529,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F360" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G360" t="n">
         <v>17</v>
@@ -13567,10 +13558,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F361" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G361" t="n">
         <v>8</v>
@@ -13596,10 +13587,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F362" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13625,10 +13616,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F363" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13654,10 +13645,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F364" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13683,10 +13674,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F365" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13712,10 +13703,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F366" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13741,10 +13732,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F367" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13770,10 +13761,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F368" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13799,10 +13790,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F369" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13828,10 +13819,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F370" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13857,10 +13848,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F371" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13886,10 +13877,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F372" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13915,10 +13906,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F373" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13944,10 +13935,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F374" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13973,10 +13964,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F375" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14002,10 +13993,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F376" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14031,10 +14022,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="F377" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14060,10 +14051,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F378" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14089,10 +14080,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F379" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14118,10 +14109,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F380" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14147,10 +14138,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F381" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14176,10 +14167,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F382" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="G382" t="n">
         <v>3</v>
@@ -14205,10 +14196,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F383" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14234,10 +14225,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F384" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14263,10 +14254,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F385" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14292,10 +14283,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F386" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14321,10 +14312,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F387" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14350,10 +14341,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F388" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14379,10 +14370,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F389" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14408,10 +14399,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F390" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14437,10 +14428,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F391" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14466,10 +14457,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F392" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="G392" t="n">
         <v>2</v>
@@ -14495,10 +14486,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F393" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14524,10 +14515,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F394" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14553,10 +14544,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F395" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14582,10 +14573,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F396" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14611,10 +14602,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F397" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14640,10 +14631,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="F398" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14669,10 +14660,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F399" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14698,10 +14689,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F400" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14727,10 +14718,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F401" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14756,10 +14747,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="F402" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14785,10 +14776,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="F403" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="G403" t="n">
         <v>6</v>
@@ -14814,10 +14805,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F404" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14843,10 +14834,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F405" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14872,10 +14863,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="F406" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G406" t="n">
         <v>2</v>
@@ -14901,10 +14892,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="F407" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14930,10 +14921,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="F408" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14959,10 +14950,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F409" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14988,10 +14979,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="F410" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15017,13 +15008,13 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="F411" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H411" t="s">
         <v>4</v>
@@ -15046,10 +15037,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="F412" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15075,10 +15066,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="F413" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15104,10 +15095,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F414" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15133,10 +15124,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="F415" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15162,10 +15153,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="F416" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15191,10 +15182,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F417" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15220,10 +15211,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="F418" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15249,10 +15240,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F419" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G419" t="n">
         <v>2</v>
@@ -15278,10 +15269,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="F420" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15307,10 +15298,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="F421" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15336,10 +15327,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="F422" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15365,10 +15356,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="F423" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15394,10 +15385,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="F424" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15423,10 +15414,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="F425" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15452,10 +15443,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="F426" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15481,10 +15472,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F427" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15510,10 +15501,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="F428" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15539,10 +15530,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="F429" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15568,10 +15559,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F430" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15597,10 +15588,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="F431" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15626,10 +15617,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="F432" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15655,10 +15646,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F433" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15684,10 +15675,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F434" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15713,10 +15704,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F435" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15742,10 +15733,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F436" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15771,10 +15762,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="F437" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15800,10 +15791,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="F438" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15829,10 +15820,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F439" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15858,10 +15849,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="F440" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15887,10 +15878,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F441" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15916,10 +15907,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="F442" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="G442" t="n">
         <v>5</v>
@@ -15945,10 +15936,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="F443" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="G443" t="n">
         <v>2</v>
@@ -15974,10 +15965,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="F444" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="G444" t="n">
         <v>3</v>
@@ -16003,10 +15994,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="F445" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16032,10 +16023,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F446" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16061,10 +16052,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="F447" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16090,10 +16081,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="F448" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16119,10 +16110,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="F449" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16148,10 +16139,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F450" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16177,10 +16168,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="F451" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16206,10 +16197,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="F452" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="G452" t="n">
         <v>2</v>
@@ -16235,10 +16226,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F453" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16264,10 +16255,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="F454" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16293,10 +16284,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="F455" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="G455" t="n">
         <v>2</v>
@@ -16322,10 +16313,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="F456" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16351,10 +16342,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="F457" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="G457" t="n">
         <v>3</v>
@@ -16380,10 +16371,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="F458" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16409,10 +16400,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="F459" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16438,10 +16429,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="F460" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16467,10 +16458,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="F461" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16496,10 +16487,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="F462" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16525,10 +16516,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="F463" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16554,10 +16545,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="F464" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
